--- a/Input/cigna/benefits.xlsx
+++ b/Input/cigna/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="113">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t xml:space="preserve">discounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addons</t>
   </si>
   <si>
     <t xml:space="preserve">International Plus</t>
@@ -367,7 +370,7 @@
     <numFmt numFmtId="165" formatCode="0.00%"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -394,6 +397,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -438,7 +452,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -463,6 +477,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -472,6 +494,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF222222"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -480,10 +562,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF4"/>
+  <dimension ref="A1:BG5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AT1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BG5" activeCellId="0" sqref="BG5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BG4" activeCellId="0" sqref="BG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -510,7 +592,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="19.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="55" min="51" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="21.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="57" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="58" min="57" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="38.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="60" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,449 +769,466 @@
       <c r="BF1" s="0" t="s">
         <v>56</v>
       </c>
+      <c r="BG1" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="T2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" s="1" t="n">
         <v>0.11</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AP2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ2" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AR2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AS2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AT2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AU2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AV2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AX2" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AY2" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BA2" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BD2" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BE2" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BF2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="BG2" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>2000000</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH3" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK3" s="1" t="n">
         <v>0.11</v>
       </c>
       <c r="AL3" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO3" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AP3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AR3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AS3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AT3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AU3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AV3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AX3" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AZ3" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BA3" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>750000</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X4" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE4" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="Z4" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB4" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC4" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD4" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE4" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="AF4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH4" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK4" s="1" t="n">
         <v>0.11</v>
       </c>
       <c r="AL4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO4" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AP4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AR4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AS4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AT4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AU4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AV4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AW4" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AX4" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="BG4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BG5" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
